--- a/非受控文档/需求规格说明阶段/优先级QFD打分表/项目成员扮演者优先级打分表_fym.xlsx
+++ b/非受控文档/需求规格说明阶段/优先级QFD打分表/项目成员扮演者优先级打分表_fym.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED78283-73E9-4E8E-8600-E77FBA6425C5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BB87FF-D62D-4D91-AA89-3E4EF2F827E0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -527,7 +527,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J15" sqref="A3:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -847,9 +847,9 @@
         <f t="shared" si="3"/>
         <v>8.6956521739130432E-2</v>
       </c>
-      <c r="J9" s="7" t="e">
-        <f>E9/(G9+K6I9)</f>
-        <v>#NAME?</v>
+      <c r="J9" s="7">
+        <f>E9/(G9+I9)</f>
+        <v>0.43268665490887709</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
